--- a/charity engos information.xlsx
+++ b/charity engos information.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fyp 17 november\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fyp 17 november\excel files data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4280D9-9955-4258-A273-E05B904B4722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1391701-6EF0-4447-A50E-0B301C8CAE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Name</t>
   </si>
@@ -36,45 +36,24 @@
     <t>Edhi Foundation</t>
   </si>
   <si>
-    <t>Edhi Foundation is one of the most important names in all the lists of best NGOs in Pakistan. It is one of the best social welfare service providers across the world running on a non-commercial, non-political, and non-communal basis. The organization is enjoying exclusive awards and shields conferred upon Mr. Abdul Sattar Edhi (late) and Mrs. Bilquis Edhi by governmental and non-governmental organizations on a national and international level. All these awards are for rendering exemplary services to humanity in multidimensional fields. Head Office: Sarafa Bazar, Bolton Market, Mithadar. Contact: (021)-32413232</t>
-  </si>
-  <si>
     <t>Chhipa Welfare Association</t>
   </si>
   <si>
-    <t>Chhipa Welfare Association is another important name in the list of top charities in Pakistan. The organization is also one of the most efficient NGOs in Pakistan, founded in 2007 by Ramzan Chhipa. Its activities include ambulance service and free or low-cost food to people with low income. Head Office: Plot#ZC-5, Sector 8/A, Shahrah Faisal. Contact: +92 21 11192 1020</t>
-  </si>
-  <si>
     <t>Shahid Afridi Foundation</t>
   </si>
   <si>
-    <t>After enjoying a glamorous cricket career, Shahid Afridi is now serving humanity through Shahid Afridi Foundation. The organization is one of the top charities in Pakistan and has a vision of educating every kid in Pakistan and ensuring the best health facilities for the poor people. The goal of SAF is to go global and create an alliance with other reputable foundations to serve humanity. Office: Rohi Nala Rd, Phase 2 Cantt View Housing Scheme, Lahore Contact: (021) 38881658</t>
-  </si>
-  <si>
     <t>Ansar Burney Trust International</t>
   </si>
   <si>
-    <t>The Ansar Burney Trust is a non-governmental, non-political, non-profitable and one of the most reputable and top charities in Pakistan. It is working to fight against all forms of injustices, cruel inhuman and degrading treatment, child abuse, cruelty against women, and other forms of human and civil rights violations without any discrimination of affiliation. Head Office: 6 Hasan Manzil, Arambagh Road. Contact: (021)-32623382</t>
-  </si>
-  <si>
     <t>Minhaj Welfare Foundation (MWF)</t>
   </si>
   <si>
-    <t>Minhaj Welfare Foundation (MWF) is also among the largest and top charities in Pakistan. It has a network of branches and projects in over 100 countries worldwide. It was started by Tahir-ul-Qadri as a part of Minhaj-ul-Quran International. MWF helps to support the poor and needy in marginalized communities by working for their rights, access to basic healthcare, and providing children access to education. Lahore Office: Kot Khawaja Saeed, Lahore, Punjab 366 M Model Town Lahore, Punjab PK: (+92) (0) 42 3516 8365 UK/EU: (+44) (0) 300 3030 777 USA: +1-888-9-646425</t>
-  </si>
-  <si>
     <t>Aga Khan Foundation</t>
   </si>
   <si>
-    <t>Aga Khan Foundation is an NGO that works to improve the quality of life for villagers. The organization, alongside its sister AKDN agencies, has implemented innovative, community-driven solutions to development challenges for more than 45 years. It focuses on a small number of specific development problems and develops intellectual and financial partnerships with organizations sharing its objectives. Head Office: SMS School, Karimabad. Contact: (021)-99244230</t>
-  </si>
-  <si>
     <t>Al-Khidmat Foundation Pakistan</t>
   </si>
   <si>
-    <t>Al-Khidmat Foundation is one of the top charities in Pakistan that focuses on a wide range of humanitarian services across Pakistan. Al-Khidmat Foundation has been active in flood relief and other disaster relief work for many years. In addition, the organization runs schools and orphan homes, manages clean water projects, runs ambulances, sets up medical camps, provides help to those in jail and offers goods and supplies to those in need. Head Office: 501, Quaideen Colony. Contact: 021 111 503 504</t>
-  </si>
-  <si>
     <t>EHSAS (Education, Health, and Social Achievement Services)</t>
   </si>
   <si>
@@ -84,62 +63,262 @@
     <t>Fatimid Foundation</t>
   </si>
   <si>
-    <t>The Fatimid Foundation is one of the leading and top charities in Pakistan that aims to help millions of patients in Pakistan who have blood-related diseases. It is a pioneer in providing safe blood transfusions. The organization provides healthy fully screened blood and its products each month to thousands of patients. The majority of them are children suffering from dreadful blood disorders such as thalassemia, hemophilia and others. The foundation also arranges urgent blood in case of emergencies in the country. Head Office: 393 Britto Road, Garden East, Karachi-74800 Contact: +92-21-32253323</t>
-  </si>
-  <si>
     <t>Khushal Pakistan</t>
   </si>
   <si>
-    <t>Khushaal Pakistan could never be overlooked when discussing top charities in Pakistan. It was formed in July 2010 when Pakistan was hit with devastating floods that affected millions. Created by a group of young graduates with a desire and drive to help the needy, the organization took off immediately with the aim to reach those in need. After the immediate flood effort died down, Khushaal Pakistan turned its attention towards rehabilitating flood-hit areas of Risalpur, Khyber Pakhtunkhwa. Head Office at Islamabad Phone: 03498326911 Email: khushalpakistansociety@gmail.com</t>
-  </si>
-  <si>
     <t>The Citizens Foundation</t>
   </si>
   <si>
-    <t>The Citizens Foundation is a non-profit organization, and one of the largest privately owned networks of low-cost formal schools in Pakistan. The foundation operates a network of 1,833 school units, educating 280,000 students through over 13,000 teachers and principals, and over 17,400 employees. Contact: (021) 111823823 Head Office: Plot No. 20, Sector #14, Korangi Industrial Area, Karachi</t>
-  </si>
-  <si>
     <t>Aurat Foundation</t>
   </si>
   <si>
-    <t>Aurat Foundation, founded in 1986, is a women's rights organization based in Islamabad, Pakistan. Its co-founders were Nigar Ahmed and Shahla Zia. Head Office, Islamabad Plot No.5, Street No. 26, Said pur Market, C-III Shopping centre, Sector G-7/1, Islamabad Tel: +92-051-2609596</t>
-  </si>
-  <si>
     <t>Save the Children</t>
   </si>
   <si>
-    <t>The Save the Children Fund, commonly known as Save the Children, is an international, non-government operated organization. It was founded in the UK in 1919, with the goal of helping improve the lives of children worldwide. Save The Children's phone number is: +92 51 111107108 U.S. Headquarters 501 Kings Hwy E - Suite 400, Fairfield, CT 06825 1.203.221.4000. Washington D.C. Office: 899 North Capitol Street, Suite 900, Washington.</t>
-  </si>
-  <si>
     <t>Saylani Welfare International</t>
   </si>
   <si>
-    <t>Saylani Welfare International Trust is a non-government organization focusing primarily on feeding the poor and homeless. It was established in May 1999 and is headquartered at Bahdurabad, Karachi, Pakistan. It was founded and headed by spiritual and religious scholar Maulana Bashir Farooq Qadri. Head Office: A-25, Bahadurabad Chowrangi Karachi, Pakistan · Phone Nos. (+92-213) 4130786-90 (5 lines) · (+92-213) 4939655, 4120882-3 · Fax no. +92-213- 4127693.</t>
-  </si>
-  <si>
     <t>The Aman Foundation</t>
   </si>
   <si>
-    <t>The Aman Foundation is a non-profit trust based in Karachi, Pakistan. It was established in 2008 by Arif and Fayeeza Naqvi. The foundation aims to improve healthcare and education in Pakistan through direct interventions and grant-giving initiatives to high-impact organizations. Head Office at Karachi. Plot # 333, Korangi Township Near Pakistan Refinery Ltd., Karachi. Phone: 021111111823. Email: info@amanfoundation.org</t>
-  </si>
-  <si>
     <t>Pakistan Red Crescent Society</t>
   </si>
   <si>
-    <t>Pakistan Red Crescent Society, is a humanitarian organization that provides emergency medical and relief services in Pakistan. The organization was founded on 20 December 1947 after Pakistan's independence by an order called The Pakistan Red Cross Order, issued by Muhammad Ali Jinnah, as Governor General of Pakistan. National Headquarter Sector H-8. Islamabad. (92) (51) 9250404 – 7 , prcs@prcs.org.pk website.</t>
-  </si>
-  <si>
     <t>Akhuwat Foundation</t>
   </si>
   <si>
-    <t>Akhuwat Foundation is a nonprofit organization based in the country of Pakistan that provides interest-free loans to individuals who are unable to access formal financial services. It was founded in 2003 by Dr. Muhammad Amjad Saqib who is the executive director of the organization. Head Office. 19 Civic Center, Sector A2, Township, Lahore, Pakistan. Phone. +042 111 448 464 +92 42 35122743.</t>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Head Office: Sarafa Bazar, Bolton Market, Mithadar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edhi Foundation is one of the most important names in all the lists of best NGOs in Pakistan. It is one of the best social welfare service providers across the world running on a non-commercial, non-political, and non-communal basis. The organization is enjoying exclusive awards and shields conferred upon Mr. Abdul Sattar Edhi (late) and Mrs. Bilquis Edhi by governmental and non-governmental organizations on a national and international level. All these awards are for rendering exemplary services to humanity in multidimensional fields. </t>
+  </si>
+  <si>
+    <t>Contact: (021)-32413232</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Head Office: Plot#ZC-5, Sector 8/A, Shahrah Faisal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chhipa Welfare Association is another important name in the list of top charities in Pakistan. The organization is also one of the most efficient NGOs in Pakistan, founded in 2007 by Ramzan Chhipa. Its activities include ambulance service and free or low-cost food to people with low income. </t>
+  </si>
+  <si>
+    <t>Contact: +92 21 11192 1020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Office: Rohi Nala Rd, Phase 2 Cantt View Housing Scheme, Lahore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After enjoying a glamorous cricket career, Shahid Afridi is now serving humanity through Shahid Afridi Foundation. The organization is one of the top charities in Pakistan and has a vision of educating every kid in Pakistan and ensuring the best health facilities for the poor people. The goal of SAF is to go global and create an alliance with other reputable foundations to serve humanity. </t>
+  </si>
+  <si>
+    <t>Contact: (021) 38881658</t>
+  </si>
+  <si>
+    <t>Head Office: 6 Hasan Manzil, Arambagh Road.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Ansar Burney Trust is a non-governmental, non-political, non-profitable and one of the most reputable and top charities in Pakistan. It is working to fight against all forms of injustices, cruel inhuman and degrading treatment, child abuse, cruelty against women, and other forms of human and civil rights violations without any discrimination of affiliation.  </t>
+  </si>
+  <si>
+    <t>Contact: (021)-32623382</t>
+  </si>
+  <si>
+    <t>Lahore Office: Kot Khawaja Saeed, Lahore, Punjab 366 M Model Town Lahore,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minhaj Welfare Foundation (MWF) is also among the largest and top charities in Pakistan. It has a network of branches and projects in over 100 countries worldwide. It was started by Tahir-ul-Qadri as a part of Minhaj-ul-Quran International. MWF helps to support the poor and needy in marginalized communities by working for their rights, access to basic healthcare, and providing children access to education. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Punjab PK: (+92) (0) 42 3516 8365 UK/EU: (+44) (0) 300 3030 777 USA: +1-888-9-646425</t>
+  </si>
+  <si>
+    <t>Head Office: SMS School, Karimabad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aga Khan Foundation is an NGO that works to improve the quality of life for villagers. The organization, alongside its sister AKDN agencies, has implemented innovative, community-driven solutions to development challenges for more than 45 years. It focuses on a small number of specific development problems and develops intellectual and financial partnerships with organizations sharing its objectives.  </t>
+  </si>
+  <si>
+    <t>Contact: (021)-99244230</t>
+  </si>
+  <si>
+    <t>Head Office: 501, Quaideen Colony.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al-Khidmat Foundation is one of the top charities in Pakistan that focuses on a wide range of humanitarian services across Pakistan. Al-Khidmat Foundation has been active in flood relief and other disaster relief work for many years. In addition, the organization runs schools and orphan homes, manages clean water projects, runs ambulances, sets up medical camps, provides help to those in jail and offers goods and supplies to those in need.  </t>
+  </si>
+  <si>
+    <t>Contact: 021 111 503 504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Headquarters is in islamabad </t>
+  </si>
+  <si>
+    <t>: USA 1 855 617 7786 | Australia 612 8103 4117 | Other ways to donate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Head Office: 393 Britto Road, Garden East, Karachi-74800 </t>
+  </si>
+  <si>
+    <t>The Fatimid Foundation is one of the leading and top charities in Pakistan that aims to help millions of patients in Pakistan who have blood-related diseases. It is a pioneer in providing safe blood transfusions. The organization provides healthy fully screened blood and its products each month to thousands of patients. The majority of them are children suffering from dreadful blood disorders such as thalassemia, hemophilia and others. The foundation also arranges urgent blood in case of emergencies in the country.</t>
+  </si>
+  <si>
+    <t>Contact: +92-21-32253323</t>
+  </si>
+  <si>
+    <t>Ehsaas Foundation and post to:P.O. Box 761, Hicksville, NY 11802-0761, USA</t>
+  </si>
+  <si>
+    <t>Khushaal Pakistan could never be overlooked when discussing top charities in Pakistan. It was formed in July 2010 when Pakistan was hit with devastating floods that affected millions. Created by a group of young graduates with a desire and drive to help the needy, the organization took off immediately with the aim to reach those in need. After the immediate flood effort died down, Khushaal Pakistan turned its attention towards rehabilitating flood-hit areas of Risalpur, Khyber Pakhtunkhwa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Head Office at Islamabad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phone: 03498326911 Email: khushalpakistansociety@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Contact: (021) 111823823 </t>
+  </si>
+  <si>
+    <t>The Citizens Foundation is a non-profit organization, and one of the largest privately owned networks of low-cost formal schools in Pakistan. The foundation operates a network of 1,833 school units, educating 280,000 students through over 13,000 teachers and principals, and over 17,400 employees.</t>
+  </si>
+  <si>
+    <t>Head Office: Plot No. 20, Sector #14, Korangi Industrial Area, Karachi</t>
+  </si>
+  <si>
+    <t>Head Office, Islamabad Plot No.5, Street No. 26, Said pur Market, C-III Shopping centre, Sector G-7/1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aurat Foundation, founded in 1986, is a women's rights organization based in Islamabad, Pakistan. Its co-founders were Nigar Ahmed and Shahla Zia.  </t>
+  </si>
+  <si>
+    <t>Islamabad Tel: +92-051-2609596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Save the Children Fund, commonly known as Save the Children, is an international, non-government operated organization. It was founded in the UK in 1919, with the goal of helping improve the lives of children worldwide. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> U.S. Headquarters 501 Kings Hwy E - Suite 400, Fairfield, CT 06825 1.203.221.4000. Washington D.C. Office: 899 North Capitol Street, Suite 900, Washington.</t>
+  </si>
+  <si>
+    <t>Save The Children's phone number is: +92 51 111107108</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Head Office: A-25, Bahadurabad Chowrangi Karachi, Pakistan </t>
+  </si>
+  <si>
+    <t>Saylani Welfare International Trust is a non-government organization focusing primarily on feeding the poor and homeless. It was established in May 1999 and is headquartered at Bahdurabad, Karachi, Pakistan. It was founded and headed by spiritual and religious scholar Maulana Bashir Farooq Qadri.·</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phone Nos. (+92-213) 4130786-90 (5 lines) · (+92-213) 4939655, 4120882-3 · Fax no. +92-213- 4127693.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Head Office at Karachi. Plot # 333, Korangi Township Near Pakistan Refinery Ltd., Karachi. </t>
+  </si>
+  <si>
+    <t>The Aman Foundation is a non-profit trust based in Karachi, Pakistan. It was established in 2008 by Arif and Fayeeza Naqvi. The foundation aims to improve healthcare and education in Pakistan through direct interventions and grant-giving initiatives to high-impact organizations.</t>
+  </si>
+  <si>
+    <t>Phone: 021111111823. Email: info@amanfoundation.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Headquarter Sector H-8. Islamabad. </t>
+  </si>
+  <si>
+    <t>Pakistan Red Crescent Society, is a humanitarian organization that provides emergency medical and relief services in Pakistan. The organization was founded on 20 December 1947 after Pakistan's independence by an order called The Pakistan Red Cross Order, issued by Muhammad Ali Jinnah, as Governor General of Pakistan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (92) (51) 9250404 – 7 , prcs@prcs.org.pk website.</t>
+  </si>
+  <si>
+    <t>. Head Office. 19 Civic Center, Sector A2, Township, Lahore, Pakistan.</t>
+  </si>
+  <si>
+    <t>Akhuwat Foundation is a nonprofit organization based in the country of Pakistan that provides interest-free loans to individuals who are unable to access formal financial services. It was founded in 2003 by Dr. Muhammad Amjad Saqib who is the executive director of the organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phone. +042 111 448 464 +92 42 35122743.</t>
+  </si>
+  <si>
+    <t>Account details</t>
+  </si>
+  <si>
+    <t>Account Title:Abdul Sattar Edhi Foundation,Account No:0031-79000171-03,Bank Name:HBL,Branch,Name:Rampart Row Branch – Karachi,Swift Code:HABBPKKAXXX</t>
+  </si>
+  <si>
+    <t>ZAKAT ACCOUNT Account No. 0103970978. Branch Code: 0148. IBAN: PK58MEZN0001480103970978. DONATION ACCOUNT Account No. 0103970917.</t>
+  </si>
+  <si>
+    <t>Branch Code: 007. Account Title: Shahid Afridi Foundation. Charity Account: PKR. Account No.: 00077900930203.</t>
+  </si>
+  <si>
+    <t>The account details for Ansar Burney Trust International at Habib Bank Limited are as follows: Account Title: Ansar Burney Trust International, Account Number: 7900229503, Branch Code: 0051, Swift Code: HABBPKKA, and IBAN: PK19HABB0000517900229503.</t>
+  </si>
+  <si>
+    <t>The Minhaj Welfare Foundation maintains accounts with two different banks in Pakistan. The first account is held at Meezan Bank Limited, under the account name "Minhaj Welfare Foundation." The account number is 0293 0103 6430 00, and the associated IBAN is PK74 MEZN 0002 9301 0364 3000. The Swift Code (BIC) for Meezan Bank is MEZNPKKALHR, and the bank is located on Shalimar Link Road, Lahore, Punjab.</t>
+  </si>
+  <si>
+    <t>The second account is with United Bank Limited (UBL), also under the name "Minhaj Welfare Foundation." The account number for this account is 0109 0002 7491 6074, with a branch code of UNIL. The IBAN for this account is PK69 UNIL 0109 0002 7491 6074, and the Swift Code (BIC) for UBL is UNILPKKA. The bank is situated at State Life Building, 1 II Chundrigar Road, Karachi 74000, Pakistan.</t>
+  </si>
+  <si>
+    <t>The Aga Khan University holds an account with Soneri Bank Limited at the AKU Branch, identified by Branch Code 0024. The account number for The Aga Khan University is 20000014401.</t>
+  </si>
+  <si>
+    <t>National Bank of Pakistan
+Account Title	Account No	IBAN Code
+Fatimid Foundation	3011703924	PK97 NBPA 1759 0030 1170 3924</t>
+  </si>
+  <si>
+    <t>Khushhali customers can now use their registered Jazz, Zong and Ufone numbers to check their account balance and loan repayment details by simply dialling *8226# from anywhere, at any time.</t>
+  </si>
+  <si>
+    <t>Allied Bank
+Account no. (PKR): 0010006028260011
+Account Title: The Citizens Foundation
+IBAN: PK46 ABPA 0010 0060 2826 0011
+SWIFT code: ABPAPKKAXXX</t>
+  </si>
+  <si>
+    <t>Bank title of Account	Aurat Publication and Information Service Foundation
+IBAN number:	PK60 UNIL 0012 1195 10021707
+Bank Branch Code	1195
+Bank Name:	United Bank Limited
+Bank A/C Number:	1195 10021707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">through website any international account details </t>
+  </si>
+  <si>
+    <t>United Bank Limited
+Swift Code	UNILPKKA
+Branch Code	0932
+Account Title	Saylani Welfare International Trust
+Account Nos
+For $ US Dollar	3500054-1</t>
+  </si>
+  <si>
+    <t>Account No: 1216-79006063-01. IBAN: PK62 HABB 0012 1679 0060 6301.</t>
+  </si>
+  <si>
+    <t>Account Title: Pakistan Red Crescent Society NW
+Account No: PK66NBPA0598003002332968
+Branch Code: 0598</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Account Title: Akhuwat (Donation Head Office) Account no: 02220104223325. IBAN: PK37MEZN0002220104223325 Swift Code: MEZNPKKA.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +352,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9.6"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -247,26 +441,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -548,160 +764,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="44" style="5" customWidth="1"/>
+    <col min="2" max="2" width="44" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="186" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="129" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="B7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="186" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="B10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="B12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="186" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="B16" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B17" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="129" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="129" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
+      <c r="B18" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
